--- a/noptien/k181.xlsx
+++ b/noptien/k181.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F66EDE8-E466-44A8-9573-45F899ECC79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E3E9B-40D4-4704-B5F1-ECB329FD4495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoc_Phi" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoc_Phi!$A$1:$O$93</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -2019,6 +2022,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,16 +2044,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3667,10 +3670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3691,46 +3695,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
       <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
@@ -3746,17 +3750,17 @@
       <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-    </row>
-    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -5051,7 +5055,7 @@
       </c>
       <c r="P30" s="52"/>
     </row>
-    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -6132,7 +6136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -6367,7 +6371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -6694,7 +6698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -7023,7 +7027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -7959,7 +7963,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -9827,18 +9831,29 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:O93" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
